--- a/outcome/simulate data/B_Japanese encephalitis.xlsx
+++ b/outcome/simulate data/B_Japanese encephalitis.xlsx
@@ -412,7 +412,7 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>14.3478368257024</v>
+        <v>15.9988891326101</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -434,7 +434,7 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>14.4375726901571</v>
+        <v>29.8218184889689</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -456,7 +456,7 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>239.623583551619</v>
+        <v>51.5227417617761</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -478,7 +478,7 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>247.126525071784</v>
+        <v>45.0454112914375</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -500,7 +500,7 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>201.627283185598</v>
+        <v>31.106688193912</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -522,7 +522,7 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>59.2717474816843</v>
+        <v>20.8319735350611</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -544,7 +544,7 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>24.2276895890802</v>
+        <v>17.1016610824429</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -566,7 +566,7 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>16.5289928033883</v>
+        <v>15.8670891932049</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -588,7 +588,7 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>14.8290263181558</v>
+        <v>15.1838208516493</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -610,7 +610,7 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>14.4534341020984</v>
+        <v>14.7847447196394</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -632,7 +632,7 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>14.3705467736326</v>
+        <v>14.8866952419084</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -654,7 +654,7 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>14.3523005146427</v>
+        <v>14.8626809244423</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -676,7 +676,7 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>14.3484069946352</v>
+        <v>15.9785228400167</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -698,7 +698,7 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>14.3594607733825</v>
+        <v>23.0633982849096</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -720,7 +720,7 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>138.848433349479</v>
+        <v>35.5142942084956</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -742,7 +742,7 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>218.700115615378</v>
+        <v>34.6948522967918</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -764,7 +764,7 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>210.105237808561</v>
+        <v>27.39030013424</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -786,7 +786,7 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>64.4298802371467</v>
+        <v>20.7958091822264</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -808,7 +808,7 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>25.4900023569888</v>
+        <v>17.6682015330264</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -830,7 +830,7 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>16.8354900867331</v>
+        <v>16.45469496202</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -852,7 +852,7 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>14.9030493501687</v>
+        <v>15.8835192367947</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -874,7 +874,7 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>14.4713156829113</v>
+        <v>15.5766557123381</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -896,7 +896,7 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>14.3749548663818</v>
+        <v>15.5678030742425</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -918,7 +918,7 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>14.3534789855278</v>
+        <v>15.5542583430393</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -940,7 +940,7 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>14.3487153541537</v>
+        <v>16.1020230181614</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -962,7 +962,7 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>14.3492284962108</v>
+        <v>19.7171142104013</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -984,7 +984,7 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>43.9496651337015</v>
+        <v>26.6666004706643</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -1006,7 +1006,7 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>126.871593327134</v>
+        <v>27.6318656472595</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1028,7 +1028,7 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>173.025359365832</v>
+        <v>24.1317268027435</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1050,7 +1050,7 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>55.5977928840424</v>
+        <v>20.1485332835904</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1072,7 +1072,7 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>23.9384465451494</v>
+        <v>17.8243143752375</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1094,7 +1094,7 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>16.5702999768047</v>
+        <v>16.7752348450624</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -1116,7 +1116,7 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>14.8603718337419</v>
+        <v>16.2906924373878</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1138,7 +1138,7 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>14.4652259502457</v>
+        <v>16.0457698540293</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1160,7 +1160,7 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>14.374330187017</v>
+        <v>15.9941755074876</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1182,7 +1182,7 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>14.3535105637326</v>
+        <v>15.9775424726564</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
